--- a/3ejaars/2023-2024/INFORMATICA/Excel/Opgave 6 Voornaam Naam.xlsx
+++ b/3ejaars/2023-2024/INFORMATICA/Excel/Opgave 6 Voornaam Naam.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mijn Drive\School - Prive\Informatica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78A83A0-7504-43BD-B8CC-3A914EC5EF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B902688-6F85-4CC5-A9D3-C1636147C199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2169,7 +2169,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2593,7 +2593,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2641,11 +2641,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="25">
-        <f>$A$2*B1</f>
+        <f>$A2*B$1</f>
         <v>1</v>
       </c>
       <c r="C2" s="25">
-        <f t="shared" ref="C2:K2" si="0">$A$2*C1</f>
+        <f t="shared" ref="C2:K11" si="0">$A2*C$1</f>
         <v>2</v>
       </c>
       <c r="D2" s="25">
@@ -2685,136 +2685,406 @@
       <c r="A3" s="74">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="B3" s="25">
+        <f t="shared" ref="B3:B11" si="1">$A3*B$1</f>
+        <v>2</v>
+      </c>
+      <c r="C3" s="25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E3" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F3" s="25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H3" s="25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I3" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K3" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="74">
         <v>3</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="B4" s="25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G4" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H4" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J4" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K4" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="74">
         <v>4</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="B5" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D5" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5" s="25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J5" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="74">
         <v>5</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="B6" s="25">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="25">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E6" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J6" s="25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="74">
         <v>6</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
+      <c r="B7" s="25">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E7" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="25">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J7" s="25">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="74">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
+      <c r="B8" s="25">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E8" s="25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="25">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G8" s="25">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H8" s="25">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J8" s="25">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="K8" s="25">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>8</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="B9" s="25">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D9" s="25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E9" s="25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9" s="25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9" s="25">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H9" s="25">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J9" s="25">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K9" s="25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>9</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="B10" s="25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D10" s="25">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E10" s="25">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F10" s="25">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G10" s="25">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H10" s="25">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I10" s="25">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J10" s="25">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K10" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>10</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
+      <c r="B11" s="25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="25">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H11" s="25">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I11" s="25">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J11" s="25">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K11" s="25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="76" t="s">
